--- a/Hypothesis_Testing_Assignment_B58_SubhasHoli.xlsx
+++ b/Hypothesis_Testing_Assignment_B58_SubhasHoli.xlsx
@@ -3,13 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D305934A-4EDC-439D-8B70-FA6519428BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E7F4FF-4BBA-42B5-AD35-B704D965325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solution_1" sheetId="1" r:id="rId1"/>
     <sheet name="Solution_2" sheetId="3" r:id="rId2"/>
+    <sheet name="Solution_3" sheetId="4" r:id="rId3"/>
+    <sheet name="Solution_4" sheetId="5" r:id="rId4"/>
+    <sheet name="Solution_5" sheetId="6" r:id="rId5"/>
+    <sheet name="Solution_6" sheetId="7" r:id="rId6"/>
+    <sheet name="Solution_7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
   <si>
     <t>During the 1980s, the general consensus is that about 5% of the nation's children had autism. Some
 claimed that increases certain chemicals in the environment has led to an increase in autism.
@@ -255,19 +260,355 @@
     <t>Since it is observed that Z = 1.385  &lt;  Zc = 2.326
 Null hypothesis cannot be rejected.</t>
   </si>
+  <si>
+    <t>Problem 3</t>
+  </si>
+  <si>
+    <t>Null Hypothesis: 44% of the adult population had never smoked</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">National data in the 1960s showed that about 44% of the adult population had never smoked.
+(a) State a null and alternative hypothesis to test that the fraction of the 1995 population of adults that had never smoked had increased.
+(b) A national random sample of 891 adults were interviewed and 463 stated that they had never smoked. Perform a z-test of the hypothesis and give an approriate p-value.
+(c) Create a 98% con_x000C_dence interval for the proportion of adults who had never been smokers.
+(d) Give the value of the power function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p) for p = 0:46; 0:48; 0:50; 0:52 with the choice of _x000B_α = 0:02 and a "greater than" alternative hypothesis.
+(e) Compute the power function for these values if we increase the sample to 1600. Explain why these values increased.</t>
+    </r>
+  </si>
+  <si>
+    <t>Alternate Hypothesis: More than 44% of the adult population had never smoked</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : P = 0.44</t>
+    </r>
+  </si>
+  <si>
+    <t>Ha : P &gt; 0.44</t>
+  </si>
+  <si>
+    <t>This is one tailed test because hypothesis is being tested is whether more than 44% of the adult population had never smoked.</t>
+  </si>
+  <si>
+    <t>consider  α = 2%, α = 0.02</t>
+  </si>
+  <si>
+    <t>A national random sample of 891 adults were interviewed and 463 stated that they had never smoked. Perform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P̂  = 463/891 = </t>
+  </si>
+  <si>
+    <t>From the table Zc value for α = 0.02 is 2.05</t>
+  </si>
+  <si>
+    <t>Since it is observed that Z = 4.789  &gt;  Zc = 2.05
+it is then concluded that the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>It is concluded that more than 44% of the adult population has never smoked.</t>
+  </si>
+  <si>
+    <t>From the graph it is observed that actual p-value calcutaed is 0.0001 which is less compared to the significance value 0.02 and hence the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>98% confidence interval</t>
+  </si>
+  <si>
+    <t>For 98% confidence interval Z value is 2.33</t>
+  </si>
+  <si>
+    <t>Confidence Interval = p  +/-  z*√p(1-p) / n</t>
+  </si>
+  <si>
+    <t>p  +  z*√p(1-p) / n</t>
+  </si>
+  <si>
+    <t>p  -  z*√p(1-p) / n</t>
+  </si>
+  <si>
+    <t>0.401&lt;P&lt;0.478</t>
+  </si>
+  <si>
+    <t>P=0.46</t>
+  </si>
+  <si>
+    <t>Since it is observed that Z = 3.571  &gt;  Zc = 2.05
+it is then concluded that the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>Reach a statistical conclusion.</t>
+  </si>
+  <si>
+    <t>P=0.48</t>
+  </si>
+  <si>
+    <t>Since it is observed that Z = 2.368  &gt;  Zc = 2.05
+it is then concluded that the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>P=0.5</t>
+  </si>
+  <si>
+    <t>Since it is observed that Z = 1.172 &lt;  Zc = 2.05
+it is then concluded that the null hypothesis cannot be rejected.</t>
+  </si>
+  <si>
+    <t>P=0.52</t>
+  </si>
+  <si>
+    <t>Since it is observed that Z = -0.0214 &lt;  Zc = 2.05
+it is then concluded that the null hypothesis cannot be rejected.</t>
+  </si>
+  <si>
+    <t>a, b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Problem4</t>
+  </si>
+  <si>
+    <t>One of the lenses in your supply is suspected to have a focal length f of 9.1cm rather than the 9cm claimed by the manufacturer.
+(a) Write an appropriate hypothesis test for this situation.
+(b) The focal length f is determined by using the thin lens formula,
+1/s1 + 1/s2 = 1/f
+Here s1 is the distance from the lens to the object and s2 is the distance from the lens to the real image of the object. The distances s1 and s2 are each independently measured 25 times. The sample mean of the measurements is S̅1 = 26.6 centimeters and  S̅2 = 13.8 centimeters, respectively. The standard deviation of the measurement is 0.1cm for s1 and 0.5cm for s2.
+Give an estimate f̂ based on these measurements and the thin lens formula.
+(c) Use the delta method to give the standard deviation of f̂.
+(d) Use this to devise a z-test for the hypothesis and report a p-value for the test.</t>
+  </si>
+  <si>
+    <t>Null Hypothesis: Distance from the lens to the object and distance from the lens to the real image are same</t>
+  </si>
+  <si>
+    <t>Alternate Hypothesis: Distance from the lens to the object and distance from the lens to the real image are different</t>
+  </si>
+  <si>
+    <t>Ho: µa= µb</t>
+  </si>
+  <si>
+    <t>H1: µa≠ µb</t>
+  </si>
+  <si>
+    <t>This is two tailed test because hypothesis is being tested is whether distance between lens and object and distance between lens and real image are different.</t>
+  </si>
+  <si>
+    <t>Since standard deviation is given we are going to perform Z-test</t>
+  </si>
+  <si>
+    <t>The distances s1 and s2 are each independently measured 25 times. The sample mean of the measurements is S̅1 = 26.6 centimeters and  S̅2 = 13.8 centimeters, respectively. The standard deviation of the measurement is 0.1cm for s1 and 0.5cm for s2.</t>
+  </si>
+  <si>
+    <t>S̅1 = 26.6</t>
+  </si>
+  <si>
+    <t>S̅2 = 13.8</t>
+  </si>
+  <si>
+    <t>n1=25</t>
+  </si>
+  <si>
+    <t>n2 = 25</t>
+  </si>
+  <si>
+    <t>σ1=0.1</t>
+  </si>
+  <si>
+    <t>σ1=0.5</t>
+  </si>
+  <si>
+    <t>Z=</t>
+  </si>
+  <si>
+    <t>Zc at 0.1 for two tailed test from z table = 1.64</t>
+  </si>
+  <si>
+    <t>Since it is observed that |Z| = 125.5143  &gt;  Zc = 1.64
+it is then concluded that the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>It is concluded that Distance from the lens to the object and distance from the lens to the real image are different</t>
+  </si>
+  <si>
+    <t>From the graph it is observed that actual p-value calcutaed is 0.0001 which is less compared to the significance value 0.1 and hence the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f̂ </t>
+  </si>
+  <si>
+    <t>(s1+s2)/s1.s2 = 1/f
+f= 1/(s1+s2)/s1.s2
+f= s1.s2/(s1+s2)</t>
+  </si>
+  <si>
+    <t>Problem 5</t>
+  </si>
+  <si>
+    <t>Null Hypothesis: Body temperature of healthy adults is 98.6 degree Fahrenheit</t>
+  </si>
+  <si>
+    <t>Alternate Hypothesis: Body temperature of healthy adults is not equal to 98.6 degree Fahrenheit</t>
+  </si>
+  <si>
+    <t>Ho: µa= 98.6 degree F</t>
+  </si>
+  <si>
+    <t>H1: µa≠ 98.6 degree F</t>
+  </si>
+  <si>
+    <t>This is two tailed test because hypothesis is being tested is whether body temperature is 98.6 degree F or not</t>
+  </si>
+  <si>
+    <t>Since the data is normally distributed t-test is selected</t>
+  </si>
+  <si>
+    <t>For t-critical</t>
+  </si>
+  <si>
+    <t>t-critical &lt; t-score; Reject the null hypothesis</t>
+  </si>
+  <si>
+    <t>t-score is calculated using below formula</t>
+  </si>
+  <si>
+    <t>n = 52; x̄ = 98.2846 s = 0:6824:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x̄ = 98.2846 </t>
+  </si>
+  <si>
+    <t>n=52</t>
+  </si>
+  <si>
+    <t>s = 0.6824:</t>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The body temperature in degrees Fahrenheit of 52 randomly chosen healthy adults is measured with
+the following summary of the data:
+n = 52; x̄ = 98:2846 s = 0:6824:
+(a) Are the necessary conditions for constructing a valid t-interval satisfied? Explain.
+(b) Find a 98% confidence interval for the mean body temperature and explain its meaning.
+(c) Give a two-side hypothesis test for a mean body temperature of 98.6 degree Fahrenheit and use the
+information above to evaluate a test with significance level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= 0:02:
+(d) Find the power of the test at the parameter value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 98.2 and indicate this value using the cutoff 
+value for the test and drawing the sample distribution for the null and alternative hypothesis.</t>
+    </r>
+  </si>
+  <si>
+    <t>µo = 98.6</t>
+  </si>
+  <si>
+    <t>tc at 0.02 for two tailed test from t table = 2.402</t>
+  </si>
+  <si>
+    <t>Since it is observed that |t| = 3.332  &gt;  tc = 2.402
+it is then concluded that the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>It is concluded that Body temperature of healthy adults is not equal to 98.6 degree Fahrenheit</t>
+  </si>
+  <si>
+    <t>From the graph it is observed that actual p-value calcutaed is 0.0016 which is less compared to the significance value 0.02 and hence the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>The 98% confidence interval is 98.057 &lt;  µ &lt; 98.512.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +632,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,13 +672,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,8 +690,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,8 +779,8 @@
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1417320" cy="514350"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -464,6 +822,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -586,7 +945,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -788,8 +1147,8 @@
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1417320" cy="514350"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -831,6 +1190,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -953,7 +1313,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1267,6 +1627,594 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1417320" cy="514350"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7205D00D-4229-47C6-8540-A3953AC47E95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="838200" y="6854190"/>
+              <a:ext cx="1417320" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-IN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-IN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̂"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="836967"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="836967"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-IN" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:srgbClr val="836967"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-IN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑝𝑞</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-IN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-IN" sz="1100">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7205D00D-4229-47C6-8540-A3953AC47E95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="838200" y="6854190"/>
+              <a:ext cx="1417320" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑧=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̂</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−𝑝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝𝑞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1100">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32597E5B-F7F3-42B2-833B-8BDCE7A171D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7063740" y="9342120"/>
+          <a:ext cx="5242560" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2659380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4487951</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC19E4C2-7A9E-461F-94E0-8754AEC802DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3268980" y="8138160"/>
+          <a:ext cx="1828571" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A93E00-59A7-4387-9907-9C475C911291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6461760" y="10988040"/>
+          <a:ext cx="5242560" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3017520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4779425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E3B7C1-34D5-4152-8A66-5B93F3253824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="6736080"/>
+          <a:ext cx="1761905" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29727F0B-5715-4CC1-B878-440DEF640DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="8999220"/>
+          <a:ext cx="5242560" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1532,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1948D3D7-92AA-448C-ACDF-C5A37EBC9BD4}">
   <dimension ref="A2:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,4 +2994,1180 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79B8391-E603-4DE8-9B4F-6C26FAC5F901}">
+  <dimension ref="A2:D111"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1">
+        <f>463/891</f>
+        <v>0.51964085297418627</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1">
+        <f>1-C34</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <f>(C33-C34)/SQRT((C34*C36)/C35)</f>
+        <v>4.7891054863903095</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4.7889999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="1">
+        <f>C34+(2.33*SQRT(C34*C36/C35))</f>
+        <v>0.47874694093859238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1">
+        <f>C34  - (2.33*SQRT(C34*C36/C35))</f>
+        <v>0.40125305906140762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1">
+        <f>463/891</f>
+        <v>0.51964085297418627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1">
+        <f>1-C59</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
+        <f>(C58-C59)/SQRT((C59*C61)/C60)</f>
+        <v>3.5719625943669371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1">
+        <f>463/891</f>
+        <v>0.51964085297418627</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1">
+        <f>1-C70</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1">
+        <f>(C69-C70)/SQRT((C70*C72)/C71)</f>
+        <v>2.3684245404655062</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1">
+        <f>463/891</f>
+        <v>0.51964085297418627</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1">
+        <f>1-C81</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1">
+        <f>(C80-C81)/SQRT((C81*C83)/C82)</f>
+        <v>1.1725441178024119</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="1">
+        <f>463/891</f>
+        <v>0.51964085297418627</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1">
+        <f>1-C92</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="1">
+        <f>(C91-C92)/SQRT((C92*C94)/C93)</f>
+        <v>-2.1457979981570535E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="2"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA720C3-F08D-460B-AF91-B96B369660CF}">
+  <dimension ref="A2:E49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="85.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="5">
+        <f>1/((1/D3)+(1/D4))</f>
+        <v>9.0861386138613867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5">
+        <f>(C34-C35)/SQRT((C38*C38/C36)+(C39*C39/C37))</f>
+        <v>125.51432648843779</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BB9182-79B6-48D8-84F1-8318F7DEF3CF}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="85.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="6">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="6">
+        <v>98.284599999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.68240000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="6">
+        <f>(C33-C32)/(C35/SQRT(C34))</f>
+        <v>-3.3329158038725986</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AABB46-432D-4731-A5E5-3C2B19E81638}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE42CD-C9E4-47F7-8868-B63ECB8C4B4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Hypothesis_Testing_Assignment_B58_SubhasHoli.xlsx
+++ b/Hypothesis_Testing_Assignment_B58_SubhasHoli.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E7F4FF-4BBA-42B5-AD35-B704D965325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC8D07-7D19-45CA-985D-A669A86D9C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solution_1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,34 @@
     <sheet name="Solution_4" sheetId="5" r:id="rId4"/>
     <sheet name="Solution_5" sheetId="6" r:id="rId5"/>
     <sheet name="Solution_6" sheetId="7" r:id="rId6"/>
-    <sheet name="Solution_7" sheetId="8" r:id="rId7"/>
+    <sheet name="Solution_7" sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Solution_7!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Solution_7!$E$2:$E$20</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Solution_7!$E$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Solution_7!$E$2:$E$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Solution_7!$F$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Solution_7!$F$2:$F$30</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Solution_7!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Solution_7!$E$2:$E$30</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Solution_7!$F$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Solution_7!$F$2:$F$30</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Solution_6!$H$2</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">Solution_7!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="192">
   <si>
     <t>During the 1980s, the general consensus is that about 5% of the nation's children had autism. Some
 claimed that increases certain chemicals in the environment has led to an increase in autism.
@@ -603,12 +629,206 @@
   <si>
     <t>The 98% confidence interval is 98.057 &lt;  µ &lt; 98.512.</t>
   </si>
+  <si>
+    <t>Drivers of cars calling for regular gas sometimes premium in the hopes that it will improve gas mileage.
+Here a rental car company takes 10 randomly chosen cars in its fleet and runs a tank of gas according to a coin toss, runs a tank of gas of each type.
+	Car # 	1   2  3  4  5  6  7  8  9 10
+	Regular 16 20 21 22 23 22 27 25 27 28
+	Premium 19 22 24 24 25 25 26 26 28 32
+(a) Write an appropriate hypothesis test for this situation and state the testing procedure appropriate to this circumstance.
+(b) Compute the necessary summary statistics for the test in part (a).
+(c) Perform the t-test and report the p-value.
+(d) Compare your result to that of a two sample t-test.</t>
+  </si>
+  <si>
+    <t>Problem 6</t>
+  </si>
+  <si>
+    <t>Car#</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Null Hypothesis: There is no difference in mileage using regular or premium gas for a car</t>
+  </si>
+  <si>
+    <t>Alternate Hypothesis: There is a difference in mileage using the regular or premium gas for a car.</t>
+  </si>
+  <si>
+    <t>Ho: µa = µb</t>
+  </si>
+  <si>
+    <t>This is two tailed test because hypothesis is being tested is whether mileage differs by using regular or premium gas.</t>
+  </si>
+  <si>
+    <t>Data for 10 cars mileae is given, refer column D, E and F</t>
+  </si>
+  <si>
+    <t>The data for t-score is analysed using data analysis feature of xls and the result is present in columns H, I and J</t>
+  </si>
+  <si>
+    <t>Standard deviations</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>µa = 23.1</t>
+  </si>
+  <si>
+    <t>n=10</t>
+  </si>
+  <si>
+    <t>S1 = 3.72</t>
+  </si>
+  <si>
+    <t>S1 = 3.44</t>
+  </si>
+  <si>
+    <t>Assuming unequal variances, degree of freedom is calcualted as below</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>µa = 25.1</t>
+  </si>
+  <si>
+    <t>DF, Nr=</t>
+  </si>
+  <si>
+    <t>DF, Dr=</t>
+  </si>
+  <si>
+    <t>The critical value for t-test for α = 0.05 and df = 17.891 is, tc=2.102</t>
+  </si>
+  <si>
+    <t>statistical t value is calculated using formula given below</t>
+  </si>
+  <si>
+    <t>Since it is observed that |t| = 1.248  &lt;  tc = 2.102
+it is then concluded that the null hypothesis cannot be rejected.</t>
+  </si>
+  <si>
+    <t>It is concluded that there is a difference in mileage using the regular or premium gas for a car.</t>
+  </si>
+  <si>
+    <t>The 95% confidence interval is -5.368 &lt; μ &lt; 1.368.</t>
+  </si>
+  <si>
+    <t>In this problem, we will examine the sugar content of several national brands of cereals, here measured as a percentage of weight.
+children 40.3 55.0 45.7 43.3 50.3 45.9 53.5 43.0 44.2 44.0
+	 33.6 55.1 48.8 50.4 37.8 60.3 46.6 47.4 44.0
+adult 20.0 30.2  2.2  7.5  4.4 22.2 16.6 14.5 21.4 3.3 10.0 1.0 4.4 1.3 8.1
+       6.6  7.8 10.6 10.6  16.2 14.5 4.1 15.8  4.1 2.4  3.5 8.5 4.7 18.4
+(a) Give a summary of these two data sets.
+(b) Create side-by-side boxplots and interpret what you see.
+(c) Use R to create a 95% confidence interval for the difference in mean sugar content and explain your result.</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> α = 5%, α = 0.05</t>
+  </si>
+  <si>
+    <t>Null Hypothesis: Sugar content of several national brands of cereals for adult and children are same</t>
+  </si>
+  <si>
+    <t>Alternate Hypothesis:  Sugar content of several national brands of cereals for adult and children are Different</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Data for sugar content level measured in different brands of cereals for children and adult is given in columns D, E and F.</t>
+  </si>
+  <si>
+    <t>µa = 46.8</t>
+  </si>
+  <si>
+    <t>µa = 10.169</t>
+  </si>
+  <si>
+    <t>s1 = 6.418</t>
+  </si>
+  <si>
+    <t>s2 = 7.475</t>
+  </si>
+  <si>
+    <t>n=19</t>
+  </si>
+  <si>
+    <t>n=29</t>
+  </si>
+  <si>
+    <t>The critical value for t-test for α = 0.05 and df = 43 is, tc=2.02</t>
+  </si>
+  <si>
+    <t>Since it is observed that |t| = 18.102  &gt;  tc = 2.02
+it is then concluded that the null hypothesis is rejected.</t>
+  </si>
+  <si>
+    <t>It is concluded that mileage is same using the regular or premium gas for a car.</t>
+  </si>
+  <si>
+    <t>From the graph it is observed that actual p-value calcutaed is 0.228 which is greater than significance value 0.05 and hence the null hypothesis cannot be rejected.</t>
+  </si>
+  <si>
+    <t>From the graph it is observed that actual p-value calcutaed is 0 which is smaller than significance value 0.05 and hence the null hypothesis is rejected.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +871,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -660,7 +888,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -668,11 +896,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,6 +945,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,6 +971,647 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box Plot</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box Plot</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0CAEE336-D08C-4B4F-B28D-1F75FD1BD24B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Children</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{028FEDDD-BF3C-4835-87CC-C1FDD500FA92}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Adult</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2215,6 +3115,392 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1661160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014164EC-E728-4AC4-A51F-393F4AA21B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257301" y="9189720"/>
+          <a:ext cx="1638299" cy="729288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1546861</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2E9E61-9DE7-4DB9-B983-630FA62ED4CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807721" y="10652760"/>
+          <a:ext cx="1402080" cy="679132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5775960</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0CCB6A-3340-4037-BA91-5DF69E637520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="11506200"/>
+          <a:ext cx="4312920" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1661160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75520DA-8F2C-41E6-93E4-C7F5B91DEB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="9189720"/>
+          <a:ext cx="1638299" cy="729288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1546861</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506A9578-F93C-4119-BFD4-97DF27E2B556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807721" y="10652760"/>
+          <a:ext cx="1402080" cy="679132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5394960</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>71193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E54D47-D75A-4FC0-8E26-CDC471CD8988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057900" y="11818620"/>
+          <a:ext cx="4663440" cy="3111573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482B8472-C8CD-4246-9925-43A593D66E55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9387840" y="6115050"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2480,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2710,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1948D3D7-92AA-448C-ACDF-C5A37EBC9BD4}">
   <dimension ref="A2:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C68"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,7 +4286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79B8391-E603-4DE8-9B4F-6C26FAC5F901}">
   <dimension ref="A2:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B57"/>
     </sheetView>
   </sheetViews>
@@ -3624,8 +4910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA720C3-F08D-460B-AF91-B96B369660CF}">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BB9182-79B6-48D8-84F1-8318F7DEF3CF}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4146,28 +5432,1250 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AABB46-432D-4731-A5E5-3C2B19E81638}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="21" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
+        <v>22</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="10">
+        <v>23.1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="10">
+        <v>13.877777777777737</v>
+      </c>
+      <c r="J6" s="10">
+        <v>11.877777777777737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5">
+        <v>25</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="10">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="10">
+        <v>18</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-1.2462194771917938</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.11432992430382044</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.7340636066175394</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="H13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.22865984860764088</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2.1009220402410378</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="I16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="5">
+        <f>SQRT(I6)</f>
+        <v>3.7252889522529307</v>
+      </c>
+      <c r="J17" s="5">
+        <f>SQRT(J6)</f>
+        <v>3.4464152068167495</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="5">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="5">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="5">
+        <f>(POWER(((C31*C31/C32) + (C34*C34/C35)), 2))</f>
+        <v>6.590515840000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="5">
+        <f>(D40/(C32-1))+(E40/(C35-1))</f>
+        <v>0.36837267057777784</v>
+      </c>
+      <c r="D40" s="5">
+        <f>POWER(C31*C31/C32, 2)</f>
+        <v>1.9150131456000006</v>
+      </c>
+      <c r="E40" s="5">
+        <f>POWER(C34*C34/C35, 2)</f>
+        <v>1.4003408896</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="5">
+        <f>C39/C40</f>
+        <v>17.89089247490331</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="5">
+        <f>(C30-C33)/SQRT((C31*C31/C32) +(C34*C34/C35))</f>
+        <v>-1.2482458867167172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE42CD-C9E4-47F7-8868-B63ECB8C4B4B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB05801F-3B54-40DC-A737-A0D7CDA9DB69}">
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="27.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5">
+        <v>30.2</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45.7</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43.3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="10">
+        <v>46.79999999999999</v>
+      </c>
+      <c r="J5" s="10">
+        <v>10.168965517241379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>50.3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="10">
+        <v>41.195555555556183</v>
+      </c>
+      <c r="J6" s="10">
+        <v>55.885788177339968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45.9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>22.2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="10">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>53.5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="10">
+        <v>43</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44.2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="10">
+        <v>18.101193439785117</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4.9423653212952899E-22</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.6810707032025196</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>55.1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="10">
+        <v>9.8847306425905798E-22</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <v>48.8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2.0166921992278248</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="D16" s="5">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
+        <v>60.3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="5">
+        <f>SQRT(I6)</f>
+        <v>6.4183763955969564</v>
+      </c>
+      <c r="J17" s="5">
+        <f>SQRT(J6)</f>
+        <v>7.4756797802835271</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="5">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46.6</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="5">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>47.4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="D22" s="5">
+        <v>21</v>
+      </c>
+      <c r="F22" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="5">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="D25" s="5">
+        <v>24</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="D26" s="5">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>26</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="5">
+        <v>27</v>
+      </c>
+      <c r="F28" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="D29" s="5">
+        <v>28</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="5">
+        <v>46.8</v>
+      </c>
+      <c r="D30" s="5">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="5">
+        <v>19</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="5">
+        <v>10.169</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="5">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="5">
+        <v>29</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="5">
+        <f>(POWER(((C31*C31/C32) + (C34*C34/C35)), 2))</f>
+        <v>16.766392278459797</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="5">
+        <f>(D40/(C32-1))+(E40/(C35-1))</f>
+        <v>0.39369126937993465</v>
+      </c>
+      <c r="D40" s="5">
+        <f>POWER(C31*C31/C32, 2)</f>
+        <v>4.6999328078786045</v>
+      </c>
+      <c r="E40" s="5">
+        <f>POWER(C34*C34/C35, 2)</f>
+        <v>3.7123489526047853</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="5">
+        <f>C39/C40</f>
+        <v>42.587665977116878</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="5">
+        <f>(C30-C33)/SQRT((C31*C31/C32) +(C34*C34/C35))</f>
+        <v>18.102513040395401</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>